--- a/pred_ohlcv/54_21/2019-11-13 VET ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-13 VET ohlcv.xlsx
@@ -1718,7 +1718,7 @@
         <v>-3762629.202910807</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>3933332.375356525</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>3328097.170756525</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>3328097.170756525</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>3188506.300356525</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>3992380.281726138</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>5115021.571607664</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>3167967.797107664</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>4037716.188707664</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>2537606.711307663</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>2574148.040407664</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>2574148.040407664</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>2395727.800007664</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>2395727.800007664</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>3532736.423702214</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>2034415.289502214</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>2052850.170202214</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>3294528.348502214</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>3294528.348502214</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>4381317.180302214</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>4381317.180302214</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>4381317.180302214</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>4996331.615002214</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>2677855.260202214</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>2677855.260202214</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>2677855.260202214</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>3433969.200402214</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>2977920.843502214</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>3739705.285302214</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>3885927.418602214</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>4188318.348402214</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>5028579.271702214</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>4516344.259718156</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>3907169.352418156</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>4048991.988918156</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>4777444.695113912</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>6717048.460413912</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>3605726.393813912</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>2587334.803413912</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>2587334.803413912</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>3124070.343013912</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>-1037475.43357444</v>
       </c>
       <c r="H403">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>-1921504.080774439</v>
       </c>
       <c r="H411">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -13262,7 +13262,7 @@
         <v>-3662619.364896391</v>
       </c>
       <c r="H495">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -13288,7 +13288,7 @@
         <v>-3646847.364896391</v>
       </c>
       <c r="H496">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -13314,7 +13314,7 @@
         <v>-3414339.982196391</v>
       </c>
       <c r="H497">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -13340,7 +13340,7 @@
         <v>-3251529.093990274</v>
       </c>
       <c r="H498">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -13366,7 +13366,7 @@
         <v>-3040422.096690274</v>
       </c>
       <c r="H499">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -13444,7 +13444,7 @@
         <v>-2607795.697690275</v>
       </c>
       <c r="H502">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -16122,7 +16122,7 @@
         <v>3184405.355448687</v>
       </c>
       <c r="H605">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="606" spans="1:8">
@@ -16174,7 +16174,7 @@
         <v>3184405.355448687</v>
       </c>
       <c r="H607">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="608" spans="1:8">
@@ -16226,7 +16226,7 @@
         <v>3163482.746848687</v>
       </c>
       <c r="H609">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="610" spans="1:8">
@@ -16252,7 +16252,7 @@
         <v>2934978.652348687</v>
       </c>
       <c r="H610">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="611" spans="1:8">
@@ -16278,7 +16278,7 @@
         <v>2935808.422648687</v>
       </c>
       <c r="H611">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="612" spans="1:8">
@@ -16330,7 +16330,7 @@
         <v>2940879.305448687</v>
       </c>
       <c r="H613">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="614" spans="1:8">
@@ -16356,7 +16356,7 @@
         <v>2965879.305448687</v>
       </c>
       <c r="H614">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="615" spans="1:8">
@@ -16382,7 +16382,7 @@
         <v>2965879.305448687</v>
       </c>
       <c r="H615">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="616" spans="1:8">
@@ -16408,7 +16408,7 @@
         <v>2965879.305448687</v>
       </c>
       <c r="H616">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="617" spans="1:8">
@@ -16434,7 +16434,7 @@
         <v>2958625.881948687</v>
       </c>
       <c r="H617">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="618" spans="1:8">
@@ -16486,7 +16486,7 @@
         <v>2958495.391048687</v>
       </c>
       <c r="H619">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="620" spans="1:8">
@@ -16590,7 +16590,7 @@
         <v>2677646.633148687</v>
       </c>
       <c r="H623">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="624" spans="1:8">
@@ -16694,7 +16694,7 @@
         <v>6106646.055448688</v>
       </c>
       <c r="H627">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="628" spans="1:8">
@@ -16720,7 +16720,7 @@
         <v>6006257.957448687</v>
       </c>
       <c r="H628">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="629" spans="1:8">
@@ -16746,7 +16746,7 @@
         <v>6006257.957448687</v>
       </c>
       <c r="H629">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="630" spans="1:8">
@@ -16772,7 +16772,7 @@
         <v>5981745.703048687</v>
       </c>
       <c r="H630">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="631" spans="1:8">
@@ -16798,7 +16798,7 @@
         <v>5974505.894548687</v>
       </c>
       <c r="H631">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="632" spans="1:8">
@@ -16824,7 +16824,7 @@
         <v>5938507.738448687</v>
       </c>
       <c r="H632">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="633" spans="1:8">
@@ -16850,7 +16850,7 @@
         <v>5938507.738448687</v>
       </c>
       <c r="H633">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="634" spans="1:8">
@@ -16876,7 +16876,7 @@
         <v>6851972.766248687</v>
       </c>
       <c r="H634">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="635" spans="1:8">
@@ -16902,7 +16902,7 @@
         <v>6826284.176048687</v>
       </c>
       <c r="H635">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="636" spans="1:8">
@@ -16928,7 +16928,7 @@
         <v>6804989.454048687</v>
       </c>
       <c r="H636">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="637" spans="1:8">
@@ -16954,7 +16954,7 @@
         <v>6806258.420148687</v>
       </c>
       <c r="H637">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="638" spans="1:8">
@@ -16980,7 +16980,7 @@
         <v>7708469.336748687</v>
       </c>
       <c r="H638">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="639" spans="1:8">
@@ -17006,7 +17006,7 @@
         <v>7502990.023648687</v>
       </c>
       <c r="H639">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="640" spans="1:8">
@@ -17032,7 +17032,7 @@
         <v>7502990.023648687</v>
       </c>
       <c r="H640">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="641" spans="1:8">
@@ -17058,7 +17058,7 @@
         <v>7502990.023648687</v>
       </c>
       <c r="H641">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="642" spans="1:8">
@@ -17084,7 +17084,7 @@
         <v>7502990.023648687</v>
       </c>
       <c r="H642">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="643" spans="1:8">
@@ -17110,7 +17110,7 @@
         <v>7502990.023648687</v>
       </c>
       <c r="H643">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="644" spans="1:8">
@@ -17136,7 +17136,7 @@
         <v>7144912.830748687</v>
       </c>
       <c r="H644">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="645" spans="1:8">
@@ -17162,7 +17162,7 @@
         <v>7144912.830748687</v>
       </c>
       <c r="H645">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="646" spans="1:8">
@@ -17188,7 +17188,7 @@
         <v>6995050.095048686</v>
       </c>
       <c r="H646">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="647" spans="1:8">
@@ -17214,7 +17214,7 @@
         <v>7004732.747748687</v>
       </c>
       <c r="H647">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="648" spans="1:8">
@@ -17240,7 +17240,7 @@
         <v>7029685.436448687</v>
       </c>
       <c r="H648">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="649" spans="1:8">
@@ -17266,7 +17266,7 @@
         <v>6118463.475848687</v>
       </c>
       <c r="H649">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="650" spans="1:8">
@@ -17448,7 +17448,7 @@
         <v>6577275.047848687</v>
       </c>
       <c r="H656">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="657" spans="1:8">
@@ -17500,7 +17500,7 @@
         <v>6810906.977548687</v>
       </c>
       <c r="H658">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="659" spans="1:8">
@@ -17526,7 +17526,7 @@
         <v>6815636.784948687</v>
       </c>
       <c r="H659">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="660" spans="1:8">
@@ -17552,7 +17552,7 @@
         <v>6727560.825948687</v>
       </c>
       <c r="H660">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="661" spans="1:8">
@@ -17630,7 +17630,7 @@
         <v>8414133.359248687</v>
       </c>
       <c r="H663">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="664" spans="1:8">
@@ -17656,7 +17656,7 @@
         <v>8414133.359248687</v>
       </c>
       <c r="H664">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="665" spans="1:8">
@@ -17708,7 +17708,7 @@
         <v>8499143.698948687</v>
       </c>
       <c r="H666">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="667" spans="1:8">
@@ -17760,7 +17760,7 @@
         <v>8436539.163548687</v>
       </c>
       <c r="H668">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="669" spans="1:8">
@@ -17864,7 +17864,7 @@
         <v>8423814.539248688</v>
       </c>
       <c r="H672">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="673" spans="1:8">
@@ -18124,7 +18124,7 @@
         <v>8372117.171048688</v>
       </c>
       <c r="H682">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="683" spans="1:8">
@@ -18150,7 +18150,7 @@
         <v>8157590.171048688</v>
       </c>
       <c r="H683">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-11-13 VET ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-13 VET ohlcv.xlsx
@@ -1718,7 +1718,7 @@
         <v>-3762629.202910807</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-2889647.057010808</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-2838401.355210808</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-2682401.355210808</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>3933332.375356525</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>3328097.170756525</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>3328097.170756525</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>3188506.300356525</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>3992380.281726138</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>5115021.571607664</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>3167967.797107664</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>4037716.188707664</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>2537606.711307663</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>2574148.040407664</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>2574148.040407664</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>2395727.800007664</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>2395727.800007664</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>3532736.423702214</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>2034415.289502214</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>2052850.170202214</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>3294528.348502214</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>3294528.348502214</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>4381317.180302214</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>4381317.180302214</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>4381317.180302214</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>4996331.615002214</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>2677855.260202214</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>2677855.260202214</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>2677855.260202214</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>3433969.200402214</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>2977920.843502214</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>3739705.285302214</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>3885927.418602214</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>4188318.348402214</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>5028579.271702214</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>4516344.259718156</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>3907169.352418156</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>4048991.988918156</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>4777444.695113912</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>6717048.460413912</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>3605726.393813912</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>2587334.803413912</v>
       </c>
       <c r="H155">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>2587334.803413912</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>3124070.343013912</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>6980338.052751561</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>6980338.052751561</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>6693112.25905156</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>6693112.25905156</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>6674112.25905156</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>6639553.83425156</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>5811366.17365156</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>5812366.17365156</v>
       </c>
       <c r="H254">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>5812366.17365156</v>
       </c>
       <c r="H256">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>5836474.240051559</v>
       </c>
       <c r="H264">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>-1037475.43357444</v>
       </c>
       <c r="H403">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>-1921504.080774439</v>
       </c>
       <c r="H411">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -13262,7 +13262,7 @@
         <v>-3662619.364896391</v>
       </c>
       <c r="H495">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -13288,7 +13288,7 @@
         <v>-3646847.364896391</v>
       </c>
       <c r="H496">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -13314,7 +13314,7 @@
         <v>-3414339.982196391</v>
       </c>
       <c r="H497">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -13340,7 +13340,7 @@
         <v>-3251529.093990274</v>
       </c>
       <c r="H498">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -13366,7 +13366,7 @@
         <v>-3040422.096690274</v>
       </c>
       <c r="H499">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -13444,7 +13444,7 @@
         <v>-2607795.697690275</v>
       </c>
       <c r="H502">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -16070,7 +16070,7 @@
         <v>3251301.513648687</v>
       </c>
       <c r="H603">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="604" spans="1:8">
@@ -16096,7 +16096,7 @@
         <v>3251301.513648687</v>
       </c>
       <c r="H604">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="605" spans="1:8">
@@ -16122,7 +16122,7 @@
         <v>3184405.355448687</v>
       </c>
       <c r="H605">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="606" spans="1:8">
@@ -16148,7 +16148,7 @@
         <v>3184405.355448687</v>
       </c>
       <c r="H606">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="607" spans="1:8">
@@ -16174,7 +16174,7 @@
         <v>3184405.355448687</v>
       </c>
       <c r="H607">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="608" spans="1:8">
@@ -16200,7 +16200,7 @@
         <v>3184405.355448687</v>
       </c>
       <c r="H608">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="609" spans="1:8">
@@ -16226,7 +16226,7 @@
         <v>3163482.746848687</v>
       </c>
       <c r="H609">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="610" spans="1:8">
@@ -16252,7 +16252,7 @@
         <v>2934978.652348687</v>
       </c>
       <c r="H610">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="611" spans="1:8">
@@ -16278,7 +16278,7 @@
         <v>2935808.422648687</v>
       </c>
       <c r="H611">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="612" spans="1:8">
@@ -16304,7 +16304,7 @@
         <v>2940583.457948687</v>
       </c>
       <c r="H612">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="613" spans="1:8">
@@ -16330,7 +16330,7 @@
         <v>2940879.305448687</v>
       </c>
       <c r="H613">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="614" spans="1:8">
@@ -16356,7 +16356,7 @@
         <v>2965879.305448687</v>
       </c>
       <c r="H614">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="615" spans="1:8">
@@ -16382,7 +16382,7 @@
         <v>2965879.305448687</v>
       </c>
       <c r="H615">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="616" spans="1:8">
@@ -16408,7 +16408,7 @@
         <v>2965879.305448687</v>
       </c>
       <c r="H616">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="617" spans="1:8">
@@ -16434,7 +16434,7 @@
         <v>2958625.881948687</v>
       </c>
       <c r="H617">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="618" spans="1:8">
@@ -16460,7 +16460,7 @@
         <v>2953888.960448687</v>
       </c>
       <c r="H618">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="619" spans="1:8">
@@ -16486,7 +16486,7 @@
         <v>2958495.391048687</v>
       </c>
       <c r="H619">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="620" spans="1:8">
@@ -16512,7 +16512,7 @@
         <v>2935583.023148687</v>
       </c>
       <c r="H620">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="621" spans="1:8">
@@ -16538,7 +16538,7 @@
         <v>2670583.023148687</v>
       </c>
       <c r="H621">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="622" spans="1:8">
@@ -16564,7 +16564,7 @@
         <v>2682486.507548687</v>
       </c>
       <c r="H622">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="623" spans="1:8">
@@ -16590,7 +16590,7 @@
         <v>2677646.633148687</v>
       </c>
       <c r="H623">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="624" spans="1:8">
@@ -16616,7 +16616,7 @@
         <v>2673627.501948687</v>
       </c>
       <c r="H624">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="625" spans="1:8">
@@ -16642,7 +16642,7 @@
         <v>3480752.095348687</v>
       </c>
       <c r="H625">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="626" spans="1:8">
@@ -16668,7 +16668,7 @@
         <v>5689812.195348687</v>
       </c>
       <c r="H626">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="627" spans="1:8">
@@ -16694,7 +16694,7 @@
         <v>6106646.055448688</v>
       </c>
       <c r="H627">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="628" spans="1:8">
@@ -16720,7 +16720,7 @@
         <v>6006257.957448687</v>
       </c>
       <c r="H628">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="629" spans="1:8">
@@ -16746,7 +16746,7 @@
         <v>6006257.957448687</v>
       </c>
       <c r="H629">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="630" spans="1:8">
@@ -16772,7 +16772,7 @@
         <v>5981745.703048687</v>
       </c>
       <c r="H630">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="631" spans="1:8">
@@ -16798,7 +16798,7 @@
         <v>5974505.894548687</v>
       </c>
       <c r="H631">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="632" spans="1:8">
@@ -16824,7 +16824,7 @@
         <v>5938507.738448687</v>
       </c>
       <c r="H632">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="633" spans="1:8">
@@ -16850,7 +16850,7 @@
         <v>5938507.738448687</v>
       </c>
       <c r="H633">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="634" spans="1:8">
@@ -16876,7 +16876,7 @@
         <v>6851972.766248687</v>
       </c>
       <c r="H634">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="635" spans="1:8">
@@ -16902,7 +16902,7 @@
         <v>6826284.176048687</v>
       </c>
       <c r="H635">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="636" spans="1:8">
@@ -16928,7 +16928,7 @@
         <v>6804989.454048687</v>
       </c>
       <c r="H636">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="637" spans="1:8">
@@ -16954,7 +16954,7 @@
         <v>6806258.420148687</v>
       </c>
       <c r="H637">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="638" spans="1:8">
@@ -16980,7 +16980,7 @@
         <v>7708469.336748687</v>
       </c>
       <c r="H638">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="639" spans="1:8">
@@ -17006,7 +17006,7 @@
         <v>7502990.023648687</v>
       </c>
       <c r="H639">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="640" spans="1:8">
@@ -17032,7 +17032,7 @@
         <v>7502990.023648687</v>
       </c>
       <c r="H640">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="641" spans="1:8">
@@ -17058,7 +17058,7 @@
         <v>7502990.023648687</v>
       </c>
       <c r="H641">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="642" spans="1:8">
@@ -17084,7 +17084,7 @@
         <v>7502990.023648687</v>
       </c>
       <c r="H642">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="643" spans="1:8">
@@ -17110,7 +17110,7 @@
         <v>7502990.023648687</v>
       </c>
       <c r="H643">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="644" spans="1:8">
@@ -17500,7 +17500,7 @@
         <v>6810906.977548687</v>
       </c>
       <c r="H658">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="659" spans="1:8">
